--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>300771.3271433048</v>
+        <v>319653.9938601675</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3013503.893776012</v>
+        <v>2995243.61350639</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20373567.1449482</v>
+        <v>20355670.24425593</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4789718.594510994</v>
+        <v>4812737.401672007</v>
       </c>
     </row>
     <row r="11">
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="15">
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1701,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1886,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>27.59002526031614</v>
@@ -1898,10 +1898,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="U17" t="n">
-        <v>14.31059503474164</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>27.59002526031614</v>
@@ -2053,7 +2053,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>103.0088977318019</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>134.5857959409657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,76 +2315,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>128.3010969141651</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>70.84795259427446</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -2451,10 +2451,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2597,16 +2597,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,19 +2643,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>79.78832327157352</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2694,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>149.3895849832727</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2752,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>19.72793538656374</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.18582309281555</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,10 +2931,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>175.4845033638799</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2965,37 +2965,37 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3038,19 +3038,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>32.81873397607134</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3074,22 +3074,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>77.66362662251787</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3123,13 +3123,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>122.9768830553416</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>189.7190331592112</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>47.87577769639576</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>33.26513104358013</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3515,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -3551,10 +3551,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>71.01467844038818</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>24.28385474568706</v>
       </c>
     </row>
     <row r="39">
@@ -3594,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,22 +3630,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>81.36670557932379</v>
       </c>
       <c r="T39" t="n">
-        <v>99.13012673870382</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3664,64 +3664,64 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>177.9933921796108</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>190.9324654410926</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>44.98526586640078</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,13 +3825,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>66.03342048484895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="17">
@@ -5516,37 +5516,37 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M17" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N17" t="n">
-        <v>83.04597603355158</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O17" t="n">
-        <v>110.3601010412646</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P17" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q17" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R17" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S17" t="n">
-        <v>44.53106090472204</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T17" t="n">
-        <v>16.66234852056432</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U17" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V17" t="n">
         <v>2.207202020825291</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58.69875944192644</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C18" t="n">
-        <v>58.69875944192644</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D18" t="n">
-        <v>58.69875944192644</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E18" t="n">
-        <v>58.69875944192644</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F18" t="n">
-        <v>58.69875944192644</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G18" t="n">
-        <v>58.69875944192644</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H18" t="n">
-        <v>30.83004705776872</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I18" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J18" t="n">
         <v>2.207202020825291</v>
@@ -5598,16 +5598,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L18" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M18" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N18" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O18" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P18" t="n">
         <v>110.3601010412646</v>
@@ -5616,28 +5616,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S18" t="n">
-        <v>58.69875944192644</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T18" t="n">
-        <v>58.69875944192644</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U18" t="n">
-        <v>58.69875944192644</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V18" t="n">
-        <v>58.69875944192644</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W18" t="n">
-        <v>58.69875944192644</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X18" t="n">
-        <v>58.69875944192644</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y18" t="n">
-        <v>58.69875944192644</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="19">
@@ -5692,13 +5692,13 @@
         <v>108.4888536788635</v>
       </c>
       <c r="Q19" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="R19" t="n">
         <v>80.62014129470579</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>52.75142891054807</v>
-      </c>
-      <c r="S19" t="n">
-        <v>24.88271652639035</v>
       </c>
       <c r="T19" t="n">
         <v>24.88271652639035</v>
@@ -5710,13 +5710,13 @@
         <v>24.88271652639035</v>
       </c>
       <c r="W19" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="X19" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>125.0774898247174</v>
+        <v>592.9597988536757</v>
       </c>
       <c r="C21" t="n">
-        <v>125.0774898247174</v>
+        <v>418.5067695725487</v>
       </c>
       <c r="D21" t="n">
-        <v>125.0774898247174</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E21" t="n">
-        <v>125.0774898247174</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F21" t="n">
-        <v>125.0774898247174</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G21" t="n">
-        <v>125.0774898247174</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>125.0774898247174</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>125.0774898247174</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X21" t="n">
-        <v>125.0774898247174</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y21" t="n">
-        <v>125.0774898247174</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="22">
@@ -5929,7 +5929,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>90.84473158927784</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C24" t="n">
-        <v>90.84473158927784</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="D24" t="n">
-        <v>90.84473158927784</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="E24" t="n">
-        <v>90.84473158927784</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="F24" t="n">
-        <v>90.84473158927784</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="G24" t="n">
-        <v>90.84473158927784</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>90.84473158927784</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>259.0600686093459</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W24" t="n">
-        <v>259.0600686093459</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X24" t="n">
-        <v>259.0600686093459</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y24" t="n">
-        <v>259.0600686093459</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="25">
@@ -6178,16 +6178,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>385.8949250843803</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>385.8949250843803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>385.8949250843803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>385.8949250843803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>239.3603671112653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>100.6295416938808</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>100.6295416938808</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>761.8705608694022</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y27" t="n">
-        <v>554.1102621044483</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="28">
@@ -6400,22 +6400,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>251.810259228364</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C29" t="n">
-        <v>251.810259228364</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D29" t="n">
-        <v>251.810259228364</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E29" t="n">
-        <v>251.810259228364</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F29" t="n">
-        <v>251.810259228364</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V29" t="n">
-        <v>738.7078125165641</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W29" t="n">
-        <v>738.7078125165641</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X29" t="n">
-        <v>495.259035872464</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y29" t="n">
-        <v>251.810259228364</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>342.668582052591</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C30" t="n">
-        <v>168.215552771464</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6546,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>926.4957180431458</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>926.4957180431458</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>926.4957180431458</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>926.4957180431458</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>926.4957180431458</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>926.4957180431458</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X30" t="n">
-        <v>718.6442178376129</v>
+        <v>341.164710120373</v>
       </c>
       <c r="Y30" t="n">
-        <v>510.883919072659</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>677.0428069773442</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>459.4731123480227</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="W32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>710.1930433168102</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>761.8705608694022</v>
+        <v>636.1873874917243</v>
       </c>
       <c r="C33" t="n">
-        <v>587.4175315882752</v>
+        <v>461.7343582105973</v>
       </c>
       <c r="D33" t="n">
-        <v>587.4175315882752</v>
+        <v>461.7343582105973</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>302.4969032051418</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>155.9623452320268</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>152.4612591001897</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>365.7013168063877</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>578.9413745125856</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>636.1873874917243</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>636.1873874917243</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>636.1873874917243</v>
       </c>
       <c r="V33" t="n">
-        <v>761.8705608694022</v>
+        <v>636.1873874917243</v>
       </c>
       <c r="W33" t="n">
-        <v>761.8705608694022</v>
+        <v>636.1873874917243</v>
       </c>
       <c r="X33" t="n">
-        <v>761.8705608694022</v>
+        <v>636.1873874917243</v>
       </c>
       <c r="Y33" t="n">
-        <v>761.8705608694022</v>
+        <v>636.1873874917243</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G34" t="n">
-        <v>153.8134336004835</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H34" t="n">
-        <v>153.8134336004835</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I34" t="n">
-        <v>136.0777814360265</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J34" t="n">
-        <v>41.77557929797318</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>426.43660147347</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>492.3847606029253</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C36" t="n">
-        <v>317.9317313217982</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D36" t="n">
-        <v>317.9317313217982</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E36" t="n">
-        <v>158.6942763163427</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F36" t="n">
-        <v>158.6942763163427</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G36" t="n">
-        <v>158.6942763163427</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>365.7013168063877</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>578.9413745125856</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>827.9748482638502</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>654.557503714519</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="V36" t="n">
-        <v>735.8335372470253</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W36" t="n">
-        <v>492.3847606029253</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X36" t="n">
-        <v>492.3847606029253</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y36" t="n">
-        <v>492.3847606029253</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>730.8505943024719</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="C38" t="n">
-        <v>730.8505943024719</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="D38" t="n">
-        <v>730.8505943024719</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="E38" t="n">
-        <v>730.8505943024719</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="F38" t="n">
-        <v>730.8505943024719</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="G38" t="n">
-        <v>487.4018176583718</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="S38" t="n">
-        <v>730.8505943024719</v>
+        <v>488.9700445281333</v>
       </c>
       <c r="T38" t="n">
-        <v>730.8505943024719</v>
+        <v>271.4003498988118</v>
       </c>
       <c r="U38" t="n">
-        <v>730.8505943024719</v>
+        <v>271.4003498988118</v>
       </c>
       <c r="V38" t="n">
-        <v>730.8505943024719</v>
+        <v>271.4003498988118</v>
       </c>
       <c r="W38" t="n">
-        <v>730.8505943024719</v>
+        <v>271.4003498988118</v>
       </c>
       <c r="X38" t="n">
-        <v>730.8505943024719</v>
+        <v>271.4003498988118</v>
       </c>
       <c r="Y38" t="n">
-        <v>730.8505943024719</v>
+        <v>246.8712036910471</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>359.631109967291</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>359.631109967291</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>359.631109967291</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>359.631109967291</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>359.631109967291</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>220.9002845499064</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>39.21234000016818</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>779.3873992378465</v>
       </c>
       <c r="T39" t="n">
-        <v>690.5083698110992</v>
+        <v>577.2008045966124</v>
       </c>
       <c r="U39" t="n">
-        <v>462.2847515474883</v>
+        <v>577.2008045966124</v>
       </c>
       <c r="V39" t="n">
-        <v>227.1326433157456</v>
+        <v>359.631109967291</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>359.631109967291</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>359.631109967291</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>359.631109967291</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>448.2340696092722</v>
+        <v>445.2559140063055</v>
       </c>
       <c r="C41" t="n">
-        <v>448.2340696092722</v>
+        <v>445.2559140063055</v>
       </c>
       <c r="D41" t="n">
-        <v>232.6540053493298</v>
+        <v>445.2559140063055</v>
       </c>
       <c r="E41" t="n">
-        <v>232.6540053493298</v>
+        <v>445.2559140063055</v>
       </c>
       <c r="F41" t="n">
-        <v>17.07394108938743</v>
+        <v>229.6758497463631</v>
       </c>
       <c r="G41" t="n">
-        <v>17.07394108938743</v>
+        <v>229.6758497463631</v>
       </c>
       <c r="H41" t="n">
-        <v>17.07394108938743</v>
+        <v>229.6758497463631</v>
       </c>
       <c r="I41" t="n">
         <v>17.07394108938743</v>
@@ -7412,49 +7412,49 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>17.62165426160527</v>
+        <v>120.0889470003098</v>
       </c>
       <c r="L41" t="n">
-        <v>197.6975058462639</v>
+        <v>300.1647985849684</v>
       </c>
       <c r="M41" t="n">
-        <v>408.9875268274333</v>
+        <v>511.4548195661379</v>
       </c>
       <c r="N41" t="n">
-        <v>614.8420490346726</v>
+        <v>717.3093417733771</v>
       </c>
       <c r="O41" t="n">
-        <v>764.0369991773207</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P41" t="n">
         <v>853.6970544693717</v>
       </c>
       <c r="Q41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T41" t="n">
-        <v>663.8141338692145</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="U41" t="n">
-        <v>663.8141338692145</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="V41" t="n">
-        <v>448.2340696092722</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="W41" t="n">
-        <v>448.2340696092722</v>
+        <v>445.2559140063055</v>
       </c>
       <c r="X41" t="n">
-        <v>448.2340696092722</v>
+        <v>445.2559140063055</v>
       </c>
       <c r="Y41" t="n">
-        <v>448.2340696092722</v>
+        <v>445.2559140063055</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>222.5051912389426</v>
+        <v>177.0655287476287</v>
       </c>
       <c r="C42" t="n">
-        <v>222.5051912389426</v>
+        <v>177.0655287476287</v>
       </c>
       <c r="D42" t="n">
-        <v>222.5051912389426</v>
+        <v>177.0655287476287</v>
       </c>
       <c r="E42" t="n">
-        <v>155.8047665067719</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="F42" t="n">
-        <v>155.8047665067719</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="G42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="H42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="I42" t="n">
-        <v>17.07394108938743</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="J42" t="n">
         <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>142.4315011472248</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L42" t="n">
-        <v>353.7215221283943</v>
+        <v>228.3639620705569</v>
       </c>
       <c r="M42" t="n">
-        <v>565.0115431095638</v>
+        <v>439.6539830517264</v>
       </c>
       <c r="N42" t="n">
-        <v>776.3015640907333</v>
+        <v>650.9440040328959</v>
       </c>
       <c r="O42" t="n">
-        <v>784.3024959560423</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P42" t="n">
-        <v>784.3024959560423</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
@@ -7521,10 +7521,10 @@
         <v>853.6970544693717</v>
       </c>
       <c r="U42" t="n">
-        <v>638.1169902094293</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V42" t="n">
-        <v>638.1169902094293</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W42" t="n">
         <v>638.1169902094293</v>
@@ -7594,16 +7594,16 @@
         <v>151.6062315796582</v>
       </c>
       <c r="S43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="T43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="U43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="V43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="W43" t="n">
         <v>17.07394108938743</v>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
@@ -8538,19 +8538,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
         <v>235.7664149699872</v>
@@ -8699,13 +8699,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -8781,13 +8781,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,16 +8851,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -8927,16 +8927,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O14" t="n">
         <v>230.0982114216867</v>
@@ -9009,16 +9009,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9088,16 +9088,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
         <v>135.0065633140411</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>246.5651278099304</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M17" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
         <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>257.7082725202194</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,19 +9246,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>165.029656544824</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N18" t="n">
-        <v>158.9317373436494</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O18" t="n">
         <v>170.1862697047606</v>
       </c>
       <c r="P18" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>233.2169876979182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10194,22 +10194,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,10 +10352,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>319.9885156350499</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10431,19 +10431,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>229.6373335557741</v>
+        <v>148.5262779896823</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10589,10 +10589,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>319.9885156350499</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>152.1059321318265</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10905,22 +10905,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>160.7572284521226</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
-        <v>349.0484638974528</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.6430966734834</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,10 +11072,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>367.8635777812772</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>351.9786433972171</v>
@@ -11151,13 +11151,13 @@
         <v>344.7659757006762</v>
       </c>
       <c r="O42" t="n">
-        <v>150.6779938033424</v>
+        <v>347.3973054913896</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>238.7699996381505</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23115,13 +23115,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>90.41568307852349</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,10 +23145,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23300,19 +23300,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>238.7699996381505</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23355,10 +23355,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>67.5768716934421</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>174.5444375001908</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23464,16 +23464,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>205.3792369440507</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23552,16 +23552,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>305.1859059859041</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>323.6206775227822</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="15">
@@ -23574,13 +23574,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>147.0882077936849</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>132.0247892607701</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23589,13 +23589,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>90.41568307852349</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,7 +23622,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23665,19 +23665,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23774,10 +23774,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>181.4300443259292</v>
@@ -23786,10 +23786,10 @@
         <v>195.5058243038152</v>
       </c>
       <c r="U17" t="n">
-        <v>237.0350578730948</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>303.4509642208484</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,16 +23808,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>138.9431583895512</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>145.1184737279996</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>133.3437862061145</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23826,13 +23826,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>61.80660759109894</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,10 +23856,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>148.1284681808092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>157.3832208214279</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23932,7 +23932,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>149.7033661168533</v>
@@ -23941,7 +23941,7 @@
         <v>196.4265727766561</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>264.0742389760816</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,10 +23969,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,16 +23981,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>236.4659043839653</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>31.94738770890166</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24063,13 +24063,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>7.497060989136827</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,13 +24096,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24169,10 +24169,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24224,10 +24224,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,19 +24260,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24297,16 +24297,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>9.042420249045563</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>18.54868025714062</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24339,10 +24339,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24485,16 +24485,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24522,7 +24522,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24531,19 +24531,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>9.60830957984156</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,7 +24573,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24582,10 +24582,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>56.38340022020478</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24640,13 +24640,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,13 +24692,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>185.0989125581653</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24728,7 +24728,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24774,13 +24774,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,13 +24804,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>62.97201105982758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,10 +24819,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>30.28848183959758</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24926,19 +24926,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>374.0573117656401</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>199.9087398321068</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>124.0808044327389</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,22 +24962,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25002,7 +25002,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>79.98145383288308</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25011,13 +25011,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>48.70628804849623</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,13 +25093,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25208,19 +25208,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>133.8469710343848</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>196.5189054968424</v>
       </c>
     </row>
     <row r="36">
@@ -25233,13 +25233,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,13 +25248,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>64.3596665401007</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,22 +25278,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>66.89270310906301</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25312,13 +25312,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25403,13 +25403,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,10 +25439,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>138.0053911458572</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>7.701851881103124</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>361.9540839103665</v>
       </c>
     </row>
     <row r="39">
@@ -25482,13 +25482,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25518,22 +25518,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>90.31646552451403</v>
       </c>
       <c r="T39" t="n">
-        <v>101.0346019561178</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,7 +25631,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>141.25877800334</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25646,7 +25646,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25679,16 +25679,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>45.10245738452056</v>
+        <v>9.67158594678844</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>114.327994852792</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>158.3085032763204</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>121.5479177834666</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25713,13 +25713,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>91.611659970552</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,13 +25761,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>12.5171184636319</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>38.27071954357669</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>327897.5868709115</v>
+        <v>350049.7958156169</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>327897.5868709115</v>
+        <v>350049.7958156168</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>327897.5868709115</v>
+        <v>350049.7958156169</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506909.1411107077</v>
+        <v>506909.1411107078</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506909.1411107077</v>
+        <v>506909.1411107078</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506909.1411107077</v>
+        <v>488398.3911706115</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506909.1411107077</v>
+        <v>488398.3911706115</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506909.1411107077</v>
+        <v>488398.3911706117</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>486975.2514232371</v>
+        <v>486975.2514232369</v>
       </c>
     </row>
     <row r="16">
@@ -26317,40 +26317,40 @@
         <v>59129.07304229552</v>
       </c>
       <c r="D2" t="n">
-        <v>59129.07304229552</v>
+        <v>63121.07616893067</v>
       </c>
       <c r="E2" t="n">
-        <v>59129.07304229552</v>
+        <v>63121.07616893067</v>
       </c>
       <c r="F2" t="n">
-        <v>59129.07304229552</v>
+        <v>63121.07616893068</v>
       </c>
       <c r="G2" t="n">
-        <v>63415.76181874351</v>
+        <v>63415.76181874349</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223277</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223277</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.36989223279</v>
+        <v>88052.58645764725</v>
       </c>
       <c r="M2" t="n">
-        <v>91388.3698922328</v>
+        <v>88052.58645764728</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223285</v>
+        <v>88052.58645764725</v>
       </c>
       <c r="O2" t="n">
-        <v>87796.12542771843</v>
+        <v>87796.12542771842</v>
       </c>
       <c r="P2" t="n">
         <v>59129.07304229552</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7562.01207347375</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
         <v>57583.78714233168</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12588.27138056849</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="C4" t="n">
-        <v>12588.27138056849</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="D4" t="n">
-        <v>12588.27138056849</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="E4" t="n">
-        <v>12588.27138056849</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="F4" t="n">
-        <v>12588.27138056849</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="G4" t="n">
-        <v>13543.27151380256</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="H4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>19775.08488543298</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="M4" t="n">
-        <v>19775.08488543298</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="N4" t="n">
-        <v>19775.08488543298</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="O4" t="n">
-        <v>18974.79493644741</v>
+        <v>16228.30109093496</v>
       </c>
       <c r="P4" t="n">
-        <v>12588.27138056849</v>
+        <v>10750.74055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="G5" t="n">
         <v>1677.473535827221</v>
@@ -26497,13 +26497,13 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="O5" t="n">
         <v>12976.19522793445</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12913.20166172703</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>12913.20166172703</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>12913.20166172703</v>
+        <v>8463.818372101356</v>
       </c>
       <c r="E6" t="n">
-        <v>46540.80166172703</v>
+        <v>50049.84942588952</v>
       </c>
       <c r="F6" t="n">
-        <v>46540.80166172703</v>
+        <v>50049.84942588954</v>
       </c>
       <c r="G6" t="n">
-        <v>40633.00469563998</v>
+        <v>49628.59358656539</v>
       </c>
       <c r="H6" t="n">
-        <v>-624.1708992935164</v>
+        <v>2236.2243451586</v>
       </c>
       <c r="I6" t="n">
-        <v>56959.61624303815</v>
+        <v>59820.01148749034</v>
       </c>
       <c r="J6" t="n">
-        <v>56959.61624303814</v>
+        <v>59820.01148749026</v>
       </c>
       <c r="K6" t="n">
-        <v>56959.61624303814</v>
+        <v>59820.01148749026</v>
       </c>
       <c r="L6" t="n">
-        <v>56959.61624303814</v>
+        <v>58679.32698494982</v>
       </c>
       <c r="M6" t="n">
-        <v>56959.61624303815</v>
+        <v>58679.32698494985</v>
       </c>
       <c r="N6" t="n">
-        <v>56959.6162430382</v>
+        <v>58679.3269849498</v>
       </c>
       <c r="O6" t="n">
-        <v>55845.13526333657</v>
+        <v>58591.62910884902</v>
       </c>
       <c r="P6" t="n">
-        <v>46540.80166172703</v>
+        <v>48378.33248915088</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26793,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
         <v>27.59002526031614</v>
@@ -26817,13 +26817,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
         <v>213.4242636173429</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
         <v>213.4242636173429</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
         <v>213.4242636173429</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,13 +35419,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35808,16 +35808,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N18" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O18" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>91.0829537758999</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>217.7067518141195</v>
-      </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36604,10 +36604,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
@@ -36914,22 +36914,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,10 +37072,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
-        <v>181.8947995804632</v>
+        <v>84.22210066506267</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37151,19 +37151,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>91.0829537758999</v>
+        <v>9.971898209808174</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37309,13 +37309,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
-        <v>181.8947995804632</v>
+        <v>84.22210066506267</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>9.971898209808174</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37543,13 +37543,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>22.20284867224841</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
-        <v>217.7067518141195</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5532456285028686</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37792,10 +37792,10 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>137.7653663595904</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>213.4242636173429</v>
@@ -37871,13 +37871,13 @@
         <v>213.4242636173429</v>
       </c>
       <c r="O42" t="n">
-        <v>8.081749358897964</v>
+        <v>204.8010610469452</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
